--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -127,6 +127,24 @@
   </si>
   <si>
     <t>04:47:27</t>
+  </si>
+  <si>
+    <t>carlos</t>
+  </si>
+  <si>
+    <t>carlos@gmail.com</t>
+  </si>
+  <si>
+    <t>05:47:56</t>
+  </si>
+  <si>
+    <t>pablo</t>
+  </si>
+  <si>
+    <t>pablo@gmail.com</t>
+  </si>
+  <si>
+    <t>06:03:37</t>
   </si>
   <si>
     <t>Fecha de Intento</t>
@@ -1147,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1342,11 +1360,45 @@
         <v>32</v>
       </c>
     </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L10 A11 H11:I11 K11" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L12 A13:B13 H13:I13 K13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1370,13 +1422,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1390,10 +1442,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -39,127 +39,121 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
     <t>Fecha de Registro</t>
   </si>
   <si>
     <t>Hora de Registro</t>
   </si>
   <si>
+    <t>carlos paz</t>
+  </si>
+  <si>
+    <t>carlospaz@gmail.com</t>
+  </si>
+  <si>
+    <t>1020120Mdm</t>
+  </si>
+  <si>
+    <t>22/7/2025</t>
+  </si>
+  <si>
+    <t>05:36:35</t>
+  </si>
+  <si>
     <t>martina</t>
   </si>
   <si>
+    <t>martinadimasi24@gmail.com</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>05:43:51</t>
+  </si>
+  <si>
+    <t>pablo</t>
+  </si>
+  <si>
+    <t>pablo@gmail.com</t>
+  </si>
+  <si>
+    <t>contraseña123</t>
+  </si>
+  <si>
+    <t>05:51:46</t>
+  </si>
+  <si>
     <t>martinadimasi123@gmail.com</t>
   </si>
   <si>
+    <t>martinadimasi</t>
+  </si>
+  <si>
+    <t>05:53:23</t>
+  </si>
+  <si>
+    <t>Fecha de Intento</t>
+  </si>
+  <si>
+    <t>Hora de Intento</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
     <t>11/7/2025</t>
   </si>
   <si>
-    <t>07:44:41</t>
-  </si>
-  <si>
-    <t>martinadimasi24@gmail.com</t>
-  </si>
-  <si>
-    <t>07:45:30</t>
-  </si>
-  <si>
-    <t>martinadimasi1222@gmail.com</t>
-  </si>
-  <si>
-    <t>07:56:32</t>
-  </si>
-  <si>
-    <t>luis</t>
-  </si>
-  <si>
-    <t>luis@gmail.com</t>
-  </si>
-  <si>
-    <t>07:57:21</t>
-  </si>
-  <si>
-    <t>iziana@gmail.com</t>
-  </si>
-  <si>
-    <t>08:03:07</t>
-  </si>
-  <si>
-    <t>jose</t>
-  </si>
-  <si>
-    <t>jose@gmail.com</t>
-  </si>
-  <si>
-    <t>08:04:20</t>
-  </si>
-  <si>
-    <t>joseluis</t>
-  </si>
-  <si>
-    <t>joseluis@gmail.com</t>
-  </si>
-  <si>
-    <t>08:13:00</t>
-  </si>
-  <si>
-    <t>valerio</t>
-  </si>
-  <si>
-    <t>valerio@gmail.com</t>
-  </si>
-  <si>
-    <t>08:14:17</t>
-  </si>
-  <si>
-    <t>mari@gmail.com</t>
-  </si>
-  <si>
-    <t>10:18:40</t>
-  </si>
-  <si>
-    <t>juliana</t>
-  </si>
-  <si>
-    <t>juliana@gmail.com</t>
-  </si>
-  <si>
-    <t>15/7/2025</t>
-  </si>
-  <si>
-    <t>04:47:27</t>
-  </si>
-  <si>
-    <t>carlos</t>
-  </si>
-  <si>
-    <t>carlos@gmail.com</t>
-  </si>
-  <si>
-    <t>05:47:56</t>
-  </si>
-  <si>
-    <t>pablo</t>
-  </si>
-  <si>
-    <t>pablo@gmail.com</t>
-  </si>
-  <si>
-    <t>06:03:37</t>
-  </si>
-  <si>
-    <t>Fecha de Intento</t>
-  </si>
-  <si>
-    <t>Hora de Intento</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
     <t>07:56:42</t>
   </si>
   <si>
     <t>EXITOSO</t>
+  </si>
+  <si>
+    <t>aosihdaohgr@gmail.com</t>
+  </si>
+  <si>
+    <t>05:36:04</t>
+  </si>
+  <si>
+    <t>FALLIDO</t>
+  </si>
+  <si>
+    <t>05:36:06</t>
+  </si>
+  <si>
+    <t>asiojfifjgfoigj@gmail.com</t>
+  </si>
+  <si>
+    <t>05:36:48</t>
+  </si>
+  <si>
+    <t>05:36:59</t>
+  </si>
+  <si>
+    <t>05:44:07</t>
+  </si>
+  <si>
+    <t>05:51:57</t>
+  </si>
+  <si>
+    <t>05:52:57</t>
+  </si>
+  <si>
+    <t>05:53:09</t>
+  </si>
+  <si>
+    <t>05:53:29</t>
+  </si>
+  <si>
+    <t>05:53:31</t>
+  </si>
+  <si>
+    <t>05:53:34</t>
   </si>
 </sst>
 </file>
@@ -1165,240 +1159,124 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="26.8" customWidth="1"/>
+    <col min="4" max="4" width="18.3" customWidth="1"/>
+    <col min="5" max="5" width="15.1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L12 A13:B13 H13:I13 K13" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1406,13 +1284,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1422,13 +1300,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1436,23 +1314,210 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>